--- a/biology/Botanique/Combretaceae/Combretaceae.xlsx
+++ b/biology/Botanique/Combretaceae/Combretaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Combretaceae regroupe des plantes dicotylédones ; elle comprend près de 600 espèces réparties en 14 à 20 genres (il existe selon GRIN 47 synonymes pour ces genres).
 Ce sont des arbres, des arbustes ou souvent des lianes, certains adaptés aux zones arides, largement répandus dans les régions subtropicales à tropicales.
@@ -512,12 +524,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type   Combretum, dont l’origine est très obscure. Le nom fut utilisé par Pline l'Ancien (23-79 apr. J.-C.), pour nommer une plante indéterminée[1],[2]. Pline le dit semblable à une autre plante, qu'il nomme « bacchar », qu'on a assimilé à Gnaphalium sanguineum (Asteraceae)[3],[2].
-Certains auteurs ont considéré le mot  combretum comme du gaulois, « com‑br‑ant » signifiant  « qui secourt, qui aide ». Certains y ont vu la « Grande consoude » (Symphytum officinale, Boraginaceae), et l’emploi de la plante comme médicament a permis une homophonie entre les mots combretum et « consoude », com‑bhr‑lom signifiant « la plante qui soude »[4].
-Anne Heiermeier croit y reconnaitre les racines indo-européennes « kuendhro, kuondro, kuondna »[5],[6].
-Les botanistes ont tenté d'identifier quelle plante se cachait dernière le mot combretum utilisé par Pline. Un « jonc », le Juncus maximus, actuel Luzula sylvatica (Juncaceae) a notamment été avancé[7]. Mais beaucoup d'autres plantes ont été attribuées à l’appellation combretum : une plante aromatique, l’absinthe (Artemisia absinthium, Asteraceae), l’« angélique des bois » (Angelica sylvestris, Apiaceae ), le « gouet tacheté » (Arum maculatum, Araceae) ou même la « massette à larges feuilles » (Typha latifolia, Typhaceae)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type   Combretum, dont l’origine est très obscure. Le nom fut utilisé par Pline l'Ancien (23-79 apr. J.-C.), pour nommer une plante indéterminée,. Pline le dit semblable à une autre plante, qu'il nomme « bacchar », qu'on a assimilé à Gnaphalium sanguineum (Asteraceae),.
+Certains auteurs ont considéré le mot  combretum comme du gaulois, « com‑br‑ant » signifiant  « qui secourt, qui aide ». Certains y ont vu la « Grande consoude » (Symphytum officinale, Boraginaceae), et l’emploi de la plante comme médicament a permis une homophonie entre les mots combretum et « consoude », com‑bhr‑lom signifiant « la plante qui soude ».
+Anne Heiermeier croit y reconnaitre les racines indo-européennes « kuendhro, kuondro, kuondna »,.
+Les botanistes ont tenté d'identifier quelle plante se cachait dernière le mot combretum utilisé par Pline. Un « jonc », le Juncus maximus, actuel Luzula sylvatica (Juncaceae) a notamment été avancé. Mais beaucoup d'autres plantes ont été attribuées à l’appellation combretum : une plante aromatique, l’absinthe (Artemisia absinthium, Asteraceae), l’« angélique des bois » (Angelica sylvestris, Apiaceae ), le « gouet tacheté » (Arum maculatum, Araceae) ou même la « massette à larges feuilles » (Typha latifolia, Typhaceae).
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010) :
 Anogeissus (DC.) Wall.
 Buchenavia (en) Eichler
 Bucida (en) L.
@@ -569,7 +585,7 @@
 Terminalia L.
 Terminaliopsis Danguy
 Thiloa (en) Eichler
-Selon NCBI  (20 juillet 2017)[9] :
+Selon NCBI  (20 juillet 2017) :
 Anogeissus
 Buchenavia
 Bucida
@@ -589,7 +605,7 @@
 Strephonema
 Terminalia
 Thiloa
-Selon DELTA Angio           (1 juin 2010)[10] :
+Selon DELTA Angio           (1 juin 2010) :
 Anogeissus
 Buchenavia
 Bucida
@@ -609,7 +625,7 @@
 Terminalia
 Terminaliopsis
 Thiloa
-Selon ITIS      (1 juin 2010)[11] :
+Selon ITIS      (1 juin 2010) :
 Anogeissus (DC.) Guillemin, Perrottet, &amp; A. Rich.
 Buchenavia Eichl.
 Bucida L.
@@ -647,9 +663,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (1 juin 2010)[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 juin 2010) :
 genre Anogeissus
 Anogeissus acuminata
 Anogeissus leiocarpa
